--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(S)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(S).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(S)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(S).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sa</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (SA)
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sca
-Scabiosa - fam. Dipsacacées
+          <t>Sca</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Scabiosa - fam. Dipsacacées
 Scabiosa atropurpurea - Scabieuse double
 Scabiosa caucasica - Scabieuse du Caucase
 Scabiosa columbaria - Scabieuse colombaire
@@ -553,9 +572,43 @@
 Scabiosa lucida - Scabieuse luisante,
 Scabiosa triandra - Scabieuse à trois étamines
 Scandix - Apiacées
-Scandix pecten-veneris -  Peigne de Vénus
-Sch
-Schefflera
+Scandix pecten-veneris -  Peigne de Vénus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sch</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Schefflera
 Schinus
 Schinus patagonicus -  Schinus de Patagonie
 Schizachne
@@ -568,9 +621,43 @@
 Schizanthus Wisetonensis - Schizanthus
 Schizolobium
 Schoenoplectus
-Schoenoplectus triqueter - Scirpe à trois angles
-Sci
-Scilla - fam. Hyacinthacées
+Schoenoplectus triqueter - Scirpe à trois angles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sci</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scilla - fam. Hyacinthacées
 Scilla autumnalis - Scille d'automne
 Scilla bifolia - Scille à 2 feuilles
 Scilla italica -  Scille d'Italie
@@ -612,18 +699,120 @@
 Scirpus smithii -  Scirpe de Smith
 Scirpus sylvaticus -  Scirpe des bois
 Scirpus torreyi -  Scirpe de Torrey
-Scirpus validus cleber -  Scirpe valide
-Scl
-Sclerolobium
-Sco
-Scolopendrium - fam. Filicinées
+Scirpus validus cleber -  Scirpe valide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scl</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sclerolobium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sco</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Scolopendrium - fam. Filicinées
 Scolopendrium vulgare - scolopendrium
 Scolymus - fam. Astéracées
 Scolymus hispanicus -  Scolyme d'Espagne
 Scorzonera - Composées
-Scorzonera hispanica - Scorsonère ou « salsifis noir »
-Scr
-Scrophularia - fam. Scrophulariacées
+Scorzonera hispanica - Scorsonère ou « salsifis noir »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Scrophularia - fam. Scrophulariacées
 Scrophularia aestivalis
 Scrophularia alpestris
 Scrophularia arguta
@@ -631,9 +820,43 @@
 Scrophularia bosniaca
 Scrophularia canina - Scrophulaire des chiens
 Scrophularia cretacea
-Scrophularia nodosa - Scrophulaire noueuse
-Scu
-Scutellaria - fam. Lamiacées
+Scrophularia nodosa - Scrophulaire noueuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sc</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scutellaria - fam. Lamiacées
 Scutellaria alpina
 Scutellaria altissima
 Scutellaria baicalensis syn. Scutellaria macrantha - Scutellaire du lac Baïkal
@@ -651,59 +874,200 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Se</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sec
-Secale - fam. Poacées (céréale)
-Secale cereale -  Seigle cultivé
-Sed
-Sedum - fam. Crassulacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sec</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Secale - fam. Poacées (céréale)
+Secale cereale -  Seigle cultivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sedum - fam. Crassulacées
 Sedum acre - Orpin âcre
 Sedum album - Orpin blanc
 Sedum caeruleum - Orpin bleuâtre
 Sedum sieboldii - Sédum de Siebold
 Sedum spectabile - Sédum remarquable
-Sedum spurium - Sédum bâtard
-Sel
-Selaginella
+Sedum spurium - Sédum bâtard</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sel</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Selaginella
 Selaginella apoda -  Sélaginelle apode
 Selaginella denticulata -  Sélaginelle denticulée
 Selaginella rupestris -  Sélaginelle des rochers
 Selaginella selaginoides  -  Sélaginelle sélaginoïde
-Sellocharis
-Sem
-Sempervivum - fam. Crassulacées
+Sellocharis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sempervivum - fam. Crassulacées
 Sempervivum arachnoideum - Joubarbe à toile d'araignée ou « Barbajou toile d'araignée », « Artichaut des murailles », « Voile de la mariée »
 Sempervivum calcareum
 Sempervivum montanum - Joubarbe des montagnes
 Sempervivum tectorum - Joubarbe des toits
-Sempervivum soboliferum
-Sen
-Senecio - fam. Composées
+Sempervivum soboliferum</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sen</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Senecio - fam. Composées
 Senecio amaniensis - (Tanzanie)
 Senecio antandroi
 Senecio articulatus - (Le Cap)
@@ -739,18 +1103,120 @@
 Senecio stapeliiformis
 Senecio stapeliiformis minor ou Senecio gregorii - (Kenya)
 Senecio vulgaris -  Séneçon commun
-Senna
-Ser
-Serapias - fam. Orchidacées
+Senna</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ser</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Serapias - fam. Orchidacées
 Serapias cordigera
 Serapias lingua
 Serapias neglecta
 Serapias parviflora
-Serapias vomeracea
-Ses
-Sesbania
-Set
-Setaria - fam. Graminées (herbe)
+Serapias vomeracea</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sesbania</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Setaria - fam. Graminées (herbe)
 Setaria glauca (Sétaire glauque)
 Setaria italica -  Millet des oiseaux ou « Sétaire italienne »
 Setaria speciosa - Sétaire
@@ -760,73 +1226,151 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sh</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She
-Shepherdia
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>She</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shepherdia
 Shepherdia canadensis -  Shépherdie du Canada
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sib
-Sibbaldia
-Sibbaldia procumbens - Sibbaldie
-Sid
-Sideritis
-Sideritis romana - Crapaudine romaine
-Sil
-Silene - fam. Caryophyllacées
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sib</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sibbaldia
+Sibbaldia procumbens - Sibbaldie</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sideritis
+Sideritis romana - Crapaudine romaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sil</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Silene - fam. Caryophyllacées
 Silene acaulis - Silène acaule ou « Mousse fleurie »
 Silene armeria - Silène à bouquets
 Silene conica
@@ -856,83 +1400,195 @@
 Silene vulgaris -  Silène enflé
 Silene wahlbergella
 Silybum - fam. Astéracées
-Silybum marianum - Chardon-Marie
-Sim
-Simethis
-Simethis planifolia -  Simethis à feuilles plates
-Sin
-Sinapis - fam. Brassicacées
+Silybum marianum - Chardon-Marie</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Simethis
+Simethis planifolia -  Simethis à feuilles plates</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sin</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sinapis - fam. Brassicacées
 Sinapis arvensis - Moutarde blanche
 Sinapis juncea - voir Brassica juncea
 Sinningia
-Sinningia speciosa - Gloxinia
-Sis
-Sisymbrium
+Sinningia speciosa - Gloxinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sis</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sisymbrium
 Sisymbrium supinum - Braya chouchée
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Sk</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ski
-Skimmia
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ski</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skimmia
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Sm</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smi
-Smilax - fam. Smilacacées
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Smi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Smilax - fam. Smilacacées
 Smilax anceps - Salsepareille
 Smilax aspera -  Salsepareille d'Europe
 Smilax aspera mauritanica -  Salsepareille de Mauritanie
@@ -941,44 +1597,117 @@
 Smilax medica ou Smilax officinalis -  Salsepareille médicinale
 Smilax pulverulenta -  Salsepareille pulvérulente
 Smilax riedeliana - Salsepareille
-Smilax rotondifolia -  Salsepareille à feuilles rondes
-Smy
-Smyrnium - fam. Apiacées
+Smilax rotondifolia -  Salsepareille à feuilles rondes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Smy</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smyrnium - fam. Apiacées
 Smyrnium olusatrum - Maceron
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>So</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soe
-Soemmeringia
-Sol
-Solanum - fam. Solanacées
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Soe</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Soemmeringia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>So</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sol</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Solanum - fam. Solanacées
 Solanum dulcamara - Douce-amère ou Morelle douce-amère
 Solanum jasminoides - Morelle faux jasmin
 Solanum melongena - Aubergine
@@ -1003,16 +1732,118 @@
 Solidago ptarmicoides
 Solidago shortii
 Solidago uliginosa
-Solidago virgaurea - Verge d'or
-Son
-Sonchus - fam. Composées
+Solidago virgaurea - Verge d'or</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>So</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sonchus - fam. Composées
 Sonchus asper -  Laiteron rude
-Sonchus oleraceus -  Laiteron des maraîchers
-Sop
-Sophora
-Sophora japonica
-Sor
-Sorbaria - fam. Rosacées
+Sonchus oleraceus -  Laiteron des maraîchers</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>So</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sop</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sophora
+Sophora japonica</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>So</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sor</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorbaria - fam. Rosacées
 Sorbaria aitchisonii-  Sorbaria d'Aitchison
 Sorbaria arborea
 Sorbaria japonica -  Sorbaria du Japon
@@ -1031,34 +1862,39 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Sp</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spa
-Sparganium - fam. Sparganiaceae
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Spa</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sparganium - fam. Sparganiaceae
 Sparganium androcladum
 Sparganium angustifolium
 Sparganium glomeratum
@@ -1072,20 +1908,122 @@
 Spartium junceum - Spartier à tiges de jonc ou Genêt d'Espagne
 Spathiphyllum - fam. Araceae
 Spathiphyllum floribundum - Spathiphyllum floribundum
-Spathiphyllum wallisii - Spathiphyllum
-Spe
-Spergua - fam. Caryophyllacées
+Spathiphyllum wallisii - Spathiphyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Spe</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Spergua - fam. Caryophyllacées
 Spergua arvensis -  Spergule des champs
 Spergularia
-Spergularia canadensis
-Sph
-Sphagnum
+Spergularia canadensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sphagnum
 Sphagnum pylaisii -  Sphaigne de Pylais
 Sphenopholis
 Sphenopholis intermedia -  Sphénopholis intermédiaire
-Sphenopholis obtusata -  Sphénopholis obtus
-Spi
-Spinacia - fam. Chénopodiacées
+Sphenopholis obtusata -  Sphénopholis obtus</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Spi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Spinacia - fam. Chénopodiacées
 Spinacia oleracea - Épinard
 Spiraea - fam. Rosacées
 Spiraea alba -  Spirée blanche
@@ -1105,9 +2043,43 @@
 Spiranthes - fam. Orchidacées
 Spiranthes spiralis
 Spiranthes aestivalis
-Spiranthes lucida
-Spo
-Sporobolus
+Spiranthes lucida</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sp</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Spo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporobolus
 Sporobolus asper -  Sporobole rude
 Sporobolus cryptandrus -  Sporobole à fleurs cachées
 Sporobolus heterolepis -  Sporobole à glumes inégales
@@ -1118,34 +2090,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>St</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sta
-Stachys - fam. Lamiacées
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sta</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Stachys - fam. Lamiacées
 Stachys corsicus - Épiaire de Corse
 Stachys lanata - Épiaire laineuse ou « Oreille d'Ours »
 Stachys maritima - Épiaire maritime
@@ -1153,9 +2130,43 @@
 Stachys sylvatica - Épiaire des bois ou Ortie puante
 Stachys affinis - Crosne du Japon
 Staphylea
-Staphylea pinnata
-Ste
-Stellaria - fam. Caryophyllacées
+Staphylea pinnata</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ste</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Stellaria - fam. Caryophyllacées
 Stellaria borealis
 Stellaria bungeana
 Stellaria calycantha
@@ -1182,97 +2193,310 @@
 Sterculia
 Sterculia urens - Karaya
 Sternbergia
-Sternbergia lutea - Vendangeuse
-Sti
-Stipa - fam. Poacées
+Sternbergia lutea - Vendangeuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sti</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stipa - fam. Poacées
 Stipa parviflora - Stipa à petites fleurs
-Stipa pennata - Stipe à feuilles pennées
-Str
-Strachys voir à Stachys
+Stipa pennata - Stipe à feuilles pennées</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Str</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Strachys voir à Stachys
 Strelitzia
 Streptocarpus
 Streptocarpus hybridus - Streptocarpus
-Stryphnodendron
-Stu
-Stuckenia
+Stryphnodendron</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Stu</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Stuckenia
 Stuckenia filiformis -  Stuckenia filiforme
 Stuckenia filiformis alpineus -  Stuckenia filiforme alpin
 Stuckenia filiformis occidentalis -  Stuckenia filiforme occidental
 Stuckenia pectinata -  Stuckenia pectiné
-Stuckenia vaginata -  Stuckenia vaginé
-Sty
-Stylosanthes
+Stuckenia vaginata -  Stuckenia vaginé</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>St</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sty</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stylosanthes
 Styrax
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Sw</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swa
-Swartzia
-Swe
-Sweetia
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Swa</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Swartzia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sw</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Swe</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sweetia
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Sy</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Syl
-Syn
-Syngonium
-Syngonium podophyllum - Syngonium
-Syr
-Syringa - fam. Oleaceae
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Syn</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Syngonium
+Syngonium podophyllum - Syngonium</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(S)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sy</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Syr</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syringa - fam. Oleaceae
 Syringa afghanica
 Syringa japonica -  Lilas du Japon
 Syringa josikaea
